--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -61,130 +58,139 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>tea</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
+    <t>day</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
@@ -193,55 +199,37 @@
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -608,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,16 +686,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.310077519379845</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2323232323232323</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,95 +783,71 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8622291021671826</v>
+      </c>
+      <c r="L5">
+        <v>557</v>
+      </c>
+      <c r="M5">
+        <v>557</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>0.855072463768116</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>59</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>59</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>162</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.8452012383900929</v>
-      </c>
-      <c r="L6">
-        <v>546</v>
-      </c>
-      <c r="M6">
-        <v>546</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,12 +859,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <v>0.7586206896551724</v>
@@ -926,16 +890,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6745762711864407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L12">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="M12">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1025,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1051,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6571428571428571</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1077,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.65625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1103,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6380417335473515</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L16">
-        <v>795</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>795</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1129,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>451</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6197183098591549</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>813</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>813</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1155,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6041666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1181,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1207,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5964912280701754</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1233,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5588235294117647</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1259,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5571428571428572</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1285,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5538461538461539</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1311,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5389221556886228</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1337,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5288461538461539</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1363,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5277777777777778</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1389,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5213675213675214</v>
+        <v>0.484375</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1415,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.481203007518797</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1441,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4761904761904762</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1467,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1493,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1519,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4337349397590362</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1545,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4216867469879518</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1571,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>96</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3846153846153846</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1597,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.382716049382716</v>
+        <v>0.36</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1623,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.360655737704918</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1649,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3480392156862745</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L37">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1675,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>266</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3346303501945525</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L38">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1701,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>171</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3153153153153153</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1727,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.299039780521262</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="L40">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1750,24 +1714,24 @@
         <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>511</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2932330827067669</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1779,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2870813397129187</v>
+        <v>0.2917808219178082</v>
       </c>
       <c r="L42">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1805,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>149</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2685185185185185</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1831,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2615715823466093</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L44">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1857,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>686</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2589928057553957</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1883,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>103</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2475247524752475</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1909,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2214765100671141</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1935,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>116</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.209271523178808</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L48">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1961,47 +1925,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>597</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1974921630094044</v>
+        <v>0.1920614596670935</v>
       </c>
       <c r="L49">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>256</v>
+        <v>631</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1920529801324503</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2013,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1892583120204604</v>
+        <v>0.1801324503311258</v>
       </c>
       <c r="L51">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M51">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2039,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.180327868852459</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2065,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1411192214111922</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L53">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2091,47 +2055,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>353</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1405405405405405</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M54">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1359649122807018</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L55">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2143,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>394</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.134453781512605</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2169,21 +2133,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>206</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1242937853107345</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2195,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>155</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1168384879725086</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2221,73 +2185,73 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>257</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1159090909090909</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L59">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1033210332103321</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>243</v>
+        <v>650</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.09785202863961814</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L61">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2299,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.08888888888888889</v>
+        <v>0.06343283582089553</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2325,137 +2289,59 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>246</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.08464849354375897</v>
+        <v>0.04805914972273567</v>
       </c>
       <c r="L63">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>638</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.05975723622782447</v>
+        <v>0.04069264069264069</v>
       </c>
       <c r="L64">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K65">
-        <v>0.0583756345177665</v>
-      </c>
-      <c r="L65">
-        <v>23</v>
-      </c>
-      <c r="M65">
-        <v>23</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K66">
-        <v>0.04243542435424354</v>
-      </c>
-      <c r="L66">
-        <v>23</v>
-      </c>
-      <c r="M66">
-        <v>23</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K67">
-        <v>0.03982683982683983</v>
-      </c>
-      <c r="L67">
-        <v>46</v>
-      </c>
-      <c r="M67">
-        <v>48</v>
-      </c>
-      <c r="N67">
-        <v>0.96</v>
-      </c>
-      <c r="O67">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
